--- a/data/manual/dcb.xlsx
+++ b/data/manual/dcb.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>state</t>
   </si>
@@ -56,12 +56,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>report not available at SISTN/SICONFI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non-standard report and value in thousands </t>
-  </si>
-  <si>
     <t>non-standard report</t>
   </si>
   <si>
@@ -75,6 +69,9 @@
   </si>
   <si>
     <t>ms2014</t>
+  </si>
+  <si>
+    <t>values in thousands</t>
   </si>
 </sst>
 </file>
@@ -405,7 +402,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,7 +430,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -450,7 +447,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -462,12 +459,12 @@
         <v>4219518000</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -479,12 +476,12 @@
         <v>8501127953</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -496,7 +493,7 @@
         <v>8602359025.3500004</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
